--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Coil_Winding_V12.6_01-23-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Coil_Winding_V12.6_01-23-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC8DF22-F00F-48A6-A947-813F79FBE362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F4E409-3A9A-41C0-9CAE-610C40B736DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BF87076-A60C-415A-9AAB-74A09C9345AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BF87076-A60C-415A-9AAB-74A09C9345AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -162,26 +162,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -205,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,23 +501,23 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="5"/>
-    <col min="13" max="13" width="5.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="8.7265625" style="1"/>
-    <col min="19" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="2" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="5"/>
+    <col min="13" max="13" width="5.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="8.7109375" style="1"/>
+    <col min="19" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -614,7 +611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -640,7 +637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -666,48 +663,48 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <f>SQRT($L6*1000/B$2)</f>
+        <f t="shared" ref="B6:I6" si="0">SQRT($L6*1000/B$2)</f>
         <v>14.142135623730951</v>
       </c>
       <c r="C6" s="3">
-        <f>SQRT($L6*1000/C$2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D6" s="3">
-        <f>SQRT($L6*1000/D$2)</f>
+        <f t="shared" si="0"/>
         <v>22.360679774997898</v>
       </c>
       <c r="E6" s="3">
-        <f>SQRT($L6*1000/E$2)</f>
+        <f t="shared" si="0"/>
         <v>23.094010767585033</v>
       </c>
       <c r="F6" s="3">
-        <f>SQRT($L6*1000/F$2)</f>
+        <f t="shared" si="0"/>
         <v>25.298221281347036</v>
       </c>
       <c r="G6" s="3">
-        <f>SQRT($L6*1000/G$2)</f>
+        <f t="shared" si="0"/>
         <v>32.659863237109043</v>
       </c>
       <c r="H6" s="3">
-        <f>SQRT($L6*1000/H$2)</f>
+        <f t="shared" si="0"/>
         <v>57.142857142857146</v>
       </c>
       <c r="I6" s="3">
-        <f>SQRT($L6*1000/I$2)</f>
+        <f t="shared" si="0"/>
         <v>2.1380899352993952</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:K6" si="0">SQRT($L6*1000/J$2)</f>
+        <f t="shared" ref="J6:K6" si="1">SQRT($L6*1000/J$2)</f>
         <v>5.3935988997059363</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9442719099991592</v>
       </c>
       <c r="L6" s="4">
@@ -719,7 +716,7 @@
       <c r="N6" s="7">
         <v>30</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>9</v>
       </c>
       <c r="P6" s="3" t="s">
@@ -729,49 +726,49 @@
         <v>7</v>
       </c>
       <c r="R6" s="6">
-        <f t="shared" ref="Q6:R17" si="1">R$2*$O6*$O6/1000</f>
+        <f t="shared" ref="Q6:R13" si="2">R$2*$O6*$O6/1000</f>
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <f>SQRT($L7*1000/B$2)</f>
+        <f t="shared" ref="B7:H17" si="3">SQRT($L7*1000/B$2)</f>
         <v>15.811388300841896</v>
       </c>
       <c r="C7" s="3">
-        <f>SQRT($L7*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>22.360679774997898</v>
       </c>
       <c r="D7" s="6">
-        <f>SQRT($L7*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="E7" s="3">
-        <f>SQRT($L7*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>25.819888974716111</v>
       </c>
       <c r="F7" s="3">
-        <f>SQRT($L7*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>28.284271247461902</v>
       </c>
       <c r="G7" s="3">
-        <f>SQRT($L7*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>36.514837167011073</v>
       </c>
       <c r="H7" s="3">
-        <f>SQRT($L7*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>63.887656499993994</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" ref="I7:K17" si="2">SQRT($L7*1000/I$2)</f>
+        <f t="shared" ref="I7:K17" si="4">SQRT($L7*1000/I$2)</f>
         <v>2.3904572186687871</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.030226891555273</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L7" s="4">
@@ -783,59 +780,59 @@
       <c r="N7" s="7">
         <v>21.5</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>6</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.98</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <f>SQRT($L8*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>18.371173070873837</v>
       </c>
       <c r="C8" s="3">
-        <f>SQRT($L8*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>25.98076211353316</v>
       </c>
       <c r="D8" s="3">
-        <f>SQRT($L8*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>29.047375096555626</v>
       </c>
       <c r="E8" s="6">
-        <f>SQRT($L8*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F8" s="3">
-        <f>SQRT($L8*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>32.863353450309965</v>
       </c>
       <c r="G8" s="3">
-        <f>SQRT($L8*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>42.426406871192853</v>
       </c>
       <c r="H8" s="3">
-        <f>SQRT($L8*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>74.230748895809029</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7774602993176543</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.006490497453707</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.61895003862225</v>
       </c>
       <c r="L8" s="4">
@@ -847,59 +844,59 @@
       <c r="N8" s="7">
         <v>18.2</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>7</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6949999999999998</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
-        <f>SQRT($L9*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>21.213203435596427</v>
       </c>
       <c r="C9" s="3">
-        <f>SQRT($L9*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D9" s="3">
-        <f>SQRT($L9*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>33.541019662496844</v>
       </c>
       <c r="E9" s="3">
-        <f>SQRT($L9*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>34.641016151377549</v>
       </c>
       <c r="F9" s="3">
-        <f>SQRT($L9*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>37.947331922020552</v>
       </c>
       <c r="G9" s="3">
-        <f>SQRT($L9*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>48.989794855663561</v>
       </c>
       <c r="H9" s="3">
-        <f>SQRT($L9*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>85.714285714285722</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2071349029490928</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.0903983495589049</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.416407864998739</v>
       </c>
       <c r="L9" s="4">
@@ -911,59 +908,59 @@
       <c r="N9" s="7">
         <v>14.35</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>8</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.52</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <f>SQRT($L10*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>35.355339059327378</v>
       </c>
       <c r="C10" s="3">
-        <f>SQRT($L10*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="D10" s="3">
-        <f>SQRT($L10*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>55.901699437494742</v>
       </c>
       <c r="E10" s="3">
-        <f>SQRT($L10*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>57.735026918962575</v>
       </c>
       <c r="F10" s="3">
-        <f>SQRT($L10*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>63.245553203367585</v>
       </c>
       <c r="G10" s="3">
-        <f>SQRT($L10*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>81.649658092772611</v>
       </c>
       <c r="H10" s="3">
-        <f>SQRT($L10*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>142.85714285714286</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3452248382484875</v>
       </c>
-      <c r="J10" s="8">
-        <f t="shared" si="2"/>
+      <c r="J10" s="3">
+        <f t="shared" si="4"/>
         <v>13.483997249264842</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22.360679774997898</v>
       </c>
       <c r="L10" s="4">
@@ -975,7 +972,7 @@
       <c r="N10" s="7">
         <v>4</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>23</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -985,49 +982,49 @@
         <v>7</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" ref="P7:R17" si="3">R$2*$O10*$O10/1000</f>
+        <f t="shared" ref="P10:R17" si="5">R$2*$O10*$O10/1000</f>
         <v>10.58</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <f>SQRT($L11*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>37.080992435478315</v>
       </c>
       <c r="C11" s="3">
-        <f>SQRT($L11*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>52.440442408507579</v>
       </c>
       <c r="D11" s="3">
-        <f>SQRT($L11*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>58.630196997792872</v>
       </c>
       <c r="E11" s="3">
-        <f>SQRT($L11*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>60.553007081949829</v>
       </c>
       <c r="F11" s="3">
-        <f>SQRT($L11*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>66.332495807108003</v>
       </c>
       <c r="G11" s="3">
-        <f>SQRT($L11*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>85.63488385776752</v>
       </c>
       <c r="H11" s="3">
-        <f>SQRT($L11*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>149.8298354528788</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6061191058138808</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.142135623730951</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23.45207879911715</v>
       </c>
       <c r="L11" s="4">
@@ -1039,59 +1036,59 @@
       <c r="N11" s="7">
         <v>7.3</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>14</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.78</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f>SQRT($L12*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>79.843597113356566</v>
       </c>
       <c r="C12" s="3">
-        <f>SQRT($L12*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>112.91589790636215</v>
       </c>
       <c r="D12" s="3">
-        <f>SQRT($L12*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>126.24381172952597</v>
       </c>
       <c r="E12" s="3">
-        <f>SQRT($L12*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>130.38404810405297</v>
       </c>
       <c r="F12" s="3">
-        <f>SQRT($L12*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>142.82856857085699</v>
       </c>
       <c r="G12" s="3">
-        <f>SQRT($L12*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>184.39088914585776</v>
       </c>
       <c r="H12" s="3">
-        <f>SQRT($L12*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>322.61685116103473</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.071217242444348</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.451153135353138</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.497524691810391</v>
       </c>
       <c r="L12" s="4">
@@ -1103,11 +1100,11 @@
       <c r="N12" s="7">
         <v>30</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>12</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50.4</v>
       </c>
       <c r="Q12" s="3" t="s">
@@ -1117,45 +1114,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <f>SQRT($L13*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>96.824583655185421</v>
       </c>
       <c r="C13" s="3">
-        <f>SQRT($L13*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>136.93063937629154</v>
       </c>
       <c r="D13" s="3">
-        <f>SQRT($L13*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>153.09310892394862</v>
       </c>
       <c r="E13" s="3">
-        <f>SQRT($L13*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>158.11388300841898</v>
       </c>
       <c r="F13" s="3">
-        <f>SQRT($L13*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>173.20508075688772</v>
       </c>
       <c r="G13" s="3">
-        <f>SQRT($L13*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>223.60679774997897</v>
       </c>
       <c r="H13" s="3">
-        <f>SQRT($L13*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>391.23039821797579</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.638501094227998</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36.927447293799823</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.237243569579455</v>
       </c>
       <c r="L13" s="4">
@@ -1167,59 +1164,59 @@
       <c r="N13" s="7">
         <v>18.2</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="8">
         <v>37</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75.295000000000002</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <f>SQRT($L14*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>106.6536450385077</v>
       </c>
       <c r="C14" s="3">
-        <f>SQRT($L14*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>150.83103128998357</v>
       </c>
       <c r="D14" s="3">
-        <f>SQRT($L14*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>168.63421954040052</v>
       </c>
       <c r="E14" s="3">
-        <f>SQRT($L14*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>174.16467303484174</v>
       </c>
       <c r="F14" s="3">
-        <f>SQRT($L14*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>190.78784028338913</v>
       </c>
       <c r="G14" s="3">
-        <f>SQRT($L14*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>246.30604269214888</v>
       </c>
       <c r="H14" s="3">
-        <f>SQRT($L14*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>430.94580368566733</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.124515496597098</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40.676104220358354</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.453687816160212</v>
       </c>
       <c r="L14" s="4">
@@ -1231,11 +1228,11 @@
       <c r="N14" s="7">
         <v>14.35</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="8">
         <v>16</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89.6</v>
       </c>
       <c r="Q14" s="3" t="s">
@@ -1245,45 +1242,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <f>SQRT($L15*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>111.80339887498948</v>
       </c>
       <c r="C15" s="3">
-        <f>SQRT($L15*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>158.11388300841898</v>
       </c>
       <c r="D15" s="3">
-        <f>SQRT($L15*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>176.77669529663689</v>
       </c>
       <c r="E15" s="3">
-        <f>SQRT($L15*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>182.57418583505537</v>
       </c>
       <c r="F15" s="3">
-        <f>SQRT($L15*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <f>SQRT($L15*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>258.19888974716116</v>
       </c>
       <c r="H15" s="3">
-        <f>SQRT($L15*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>451.75395145262564</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.903085094570333</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.640143271122085</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.710678118654755</v>
       </c>
       <c r="L15" s="4">
@@ -1295,11 +1292,11 @@
       <c r="N15" s="7">
         <v>7.3</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8">
         <v>17</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>101.15</v>
       </c>
       <c r="Q15" s="3" t="s">
@@ -1309,45 +1306,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <f>SQRT($L16*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>165.83123951777</v>
       </c>
       <c r="C16" s="3">
-        <f>SQRT($L16*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>234.52078799117149</v>
       </c>
       <c r="D16" s="3">
-        <f>SQRT($L16*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>262.20221204253789</v>
       </c>
       <c r="E16" s="3">
-        <f>SQRT($L16*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>270.80128015453198</v>
       </c>
       <c r="F16" s="3">
-        <f>SQRT($L16*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>296.64793948382652</v>
       </c>
       <c r="G16" s="3">
-        <f>SQRT($L16*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>382.97084310253524</v>
       </c>
       <c r="H16" s="3">
-        <f>SQRT($L16*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>670.05939426048997</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.071326821120348</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.245553203367585</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104.88088481701516</v>
       </c>
       <c r="L16" s="4">
@@ -1359,11 +1356,11 @@
       <c r="N16" s="7">
         <v>4</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="8">
         <v>25</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>218.75</v>
       </c>
       <c r="Q16" s="3" t="s">
@@ -1373,45 +1370,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <f>SQRT($L17*1000/B$2)</f>
+        <f t="shared" si="3"/>
         <v>264.57513110645908</v>
       </c>
       <c r="C17" s="3">
-        <f>SQRT($L17*1000/C$2)</f>
+        <f t="shared" si="3"/>
         <v>374.16573867739413</v>
       </c>
       <c r="D17" s="3">
-        <f>SQRT($L17*1000/D$2)</f>
+        <f t="shared" si="3"/>
         <v>418.33001326703777</v>
       </c>
       <c r="E17" s="3">
-        <f>SQRT($L17*1000/E$2)</f>
+        <f t="shared" si="3"/>
         <v>432.04937989385735</v>
       </c>
       <c r="F17" s="3">
-        <f>SQRT($L17*1000/F$2)</f>
+        <f t="shared" si="3"/>
         <v>473.28638264796928</v>
       </c>
       <c r="G17" s="3">
-        <f>SQRT($L17*1000/G$2)</f>
+        <f t="shared" si="3"/>
         <v>611.0100926607787</v>
       </c>
       <c r="H17" s="3">
-        <f>SQRT($L17*1000/H$2)</f>
+        <f t="shared" si="3"/>
         <v>1069.0449676496976</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100.9049958219026</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>167.33200530681512</v>
       </c>
       <c r="L17" s="4">
@@ -1423,11 +1420,11 @@
       <c r="N17" s="7">
         <v>54</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <v>40</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>560</v>
       </c>
       <c r="Q17" s="3" t="s">
@@ -1437,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
